--- a/ANVNSimultaneous_1n_root_bank.xlsx
+++ b/ANVNSimultaneous_1n_root_bank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>30.65</v>
+        <v>23.27</v>
       </c>
       <c r="D2" t="n">
-        <v>2624.113037109375</v>
+        <v>1047.644897460938</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>36.3</v>
+        <v>19.24</v>
       </c>
       <c r="D3" t="n">
-        <v>3611.2705078125</v>
+        <v>1998.061889648438</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>38.21</v>
+        <v>15.5</v>
       </c>
       <c r="D4" t="n">
-        <v>3680.26318359375</v>
+        <v>2846.924560546875</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>32.64</v>
+        <v>24.19</v>
       </c>
       <c r="D5" t="n">
-        <v>3634.221923828125</v>
+        <v>3734.61474609375</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C6" t="n">
-        <v>34.09</v>
+        <v>24.24</v>
       </c>
       <c r="D6" t="n">
-        <v>3058.716796875</v>
+        <v>4446.236328125</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4</v>
+        <v>27.56</v>
       </c>
       <c r="D7" t="n">
-        <v>2810.548828125</v>
+        <v>4346.8076171875</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C8" t="n">
-        <v>34.35</v>
+        <v>19.53</v>
       </c>
       <c r="D8" t="n">
-        <v>2369.9794921875</v>
+        <v>6061.6513671875</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>28.61</v>
+        <v>23.88</v>
       </c>
       <c r="D9" t="n">
-        <v>1596.835205078125</v>
+        <v>5496.59716796875</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C10" t="n">
-        <v>18.67</v>
+        <v>12.54</v>
       </c>
       <c r="D10" t="n">
-        <v>1619.67919921875</v>
+        <v>5480.7548828125</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C11" t="n">
-        <v>26.71</v>
+        <v>20.91</v>
       </c>
       <c r="D11" t="n">
-        <v>948.472900390625</v>
+        <v>6475.22998046875</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>33.24</v>
+        <v>18.59</v>
       </c>
       <c r="D12" t="n">
-        <v>3139.00341796875</v>
+        <v>719.5391845703125</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>37.63</v>
+        <v>27.77</v>
       </c>
       <c r="D13" t="n">
-        <v>4020.757568359375</v>
+        <v>1203.484985351562</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>37.16</v>
+        <v>34.94</v>
       </c>
       <c r="D14" t="n">
-        <v>3598.229736328125</v>
+        <v>2263.22021484375</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>36.27</v>
+        <v>24.08</v>
       </c>
       <c r="D15" t="n">
-        <v>2813.213623046875</v>
+        <v>2213.999755859375</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C16" t="n">
-        <v>35.69</v>
+        <v>33.65</v>
       </c>
       <c r="D16" t="n">
-        <v>3395.827392578125</v>
+        <v>2977.938232421875</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C17" t="n">
-        <v>35.86</v>
+        <v>33.54</v>
       </c>
       <c r="D17" t="n">
-        <v>3029.01318359375</v>
+        <v>3633.86279296875</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C18" t="n">
-        <v>29.29</v>
+        <v>27.48</v>
       </c>
       <c r="D18" t="n">
-        <v>2394.043212890625</v>
+        <v>3442.59521484375</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>31.17</v>
+        <v>34.1</v>
       </c>
       <c r="D19" t="n">
-        <v>1745.6669921875</v>
+        <v>3815.79833984375</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C20" t="n">
-        <v>32.05</v>
+        <v>32.75</v>
       </c>
       <c r="D20" t="n">
-        <v>1602.5263671875</v>
+        <v>4627.84326171875</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C21" t="n">
-        <v>26.14</v>
+        <v>32.81</v>
       </c>
       <c r="D21" t="n">
-        <v>896.6533203125</v>
+        <v>4511.478515625</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>36.55</v>
+        <v>28.82</v>
       </c>
       <c r="D22" t="n">
-        <v>3322.656005859375</v>
+        <v>438.2752990722656</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>40.22</v>
+        <v>37.14</v>
       </c>
       <c r="D23" t="n">
-        <v>4203.48876953125</v>
+        <v>968.8855590820312</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>40.13</v>
+        <v>37.67</v>
       </c>
       <c r="D24" t="n">
-        <v>4082.092529296875</v>
+        <v>1270.669677734375</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>39.85</v>
+        <v>39.44</v>
       </c>
       <c r="D25" t="n">
-        <v>3753.494140625</v>
+        <v>1332.432861328125</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C26" t="n">
-        <v>37.16</v>
+        <v>34.66</v>
       </c>
       <c r="D26" t="n">
-        <v>3453.000732421875</v>
+        <v>1602.430786132812</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C27" t="n">
-        <v>27.01</v>
+        <v>33.75</v>
       </c>
       <c r="D27" t="n">
-        <v>2337.525390625</v>
+        <v>1772.708984375</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C28" t="n">
-        <v>29.8</v>
+        <v>40.63</v>
       </c>
       <c r="D28" t="n">
-        <v>2132.16162109375</v>
+        <v>2071.416748046875</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C29" t="n">
-        <v>27.89</v>
+        <v>31.7</v>
       </c>
       <c r="D29" t="n">
-        <v>1972.056396484375</v>
+        <v>2517.695556640625</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C30" t="n">
-        <v>23.51</v>
+        <v>37.86</v>
       </c>
       <c r="D30" t="n">
-        <v>1398.002319335938</v>
+        <v>2330.224609375</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C31" t="n">
-        <v>20.55</v>
+        <v>42.57</v>
       </c>
       <c r="D31" t="n">
-        <v>800.6517333984375</v>
+        <v>2492.625732421875</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>33.51</v>
+        <v>32.5</v>
       </c>
       <c r="D32" t="n">
-        <v>3548.66455078125</v>
+        <v>452.8054809570312</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C33" t="n">
-        <v>31.5</v>
+        <v>38.9</v>
       </c>
       <c r="D33" t="n">
-        <v>4238.822265625</v>
+        <v>540.5730590820312</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C34" t="n">
-        <v>35.62</v>
+        <v>37.88</v>
       </c>
       <c r="D34" t="n">
-        <v>2989.331298828125</v>
+        <v>661.6842041015625</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>37.29</v>
+        <v>33.63</v>
       </c>
       <c r="D35" t="n">
-        <v>3795.456298828125</v>
+        <v>774.3934936523438</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C36" t="n">
-        <v>24.96</v>
+        <v>37.24</v>
       </c>
       <c r="D36" t="n">
-        <v>3460.72509765625</v>
+        <v>1020.722900390625</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C37" t="n">
-        <v>36.03</v>
+        <v>39.48</v>
       </c>
       <c r="D37" t="n">
-        <v>2305.670654296875</v>
+        <v>1176.50927734375</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C38" t="n">
-        <v>25.22</v>
+        <v>39.63</v>
       </c>
       <c r="D38" t="n">
-        <v>2216.823974609375</v>
+        <v>1195.978881835938</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C39" t="n">
-        <v>30.9</v>
+        <v>44.37</v>
       </c>
       <c r="D39" t="n">
-        <v>1987.698852539062</v>
+        <v>1357.848388671875</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C40" t="n">
-        <v>19.21</v>
+        <v>37.73</v>
       </c>
       <c r="D40" t="n">
-        <v>1506.806518554688</v>
+        <v>1457.157592773438</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C41" t="n">
-        <v>28.46</v>
+        <v>40.23</v>
       </c>
       <c r="D41" t="n">
-        <v>978.9395751953125</v>
+        <v>1515.15087890625</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>35.5</v>
+        <v>33.65</v>
       </c>
       <c r="D42" t="n">
-        <v>3659.7373046875</v>
+        <v>444.1559753417969</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C43" t="n">
-        <v>33.46</v>
+        <v>36</v>
       </c>
       <c r="D43" t="n">
-        <v>4009.180419921875</v>
+        <v>617.861572265625</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C44" t="n">
-        <v>32.76</v>
+        <v>38.77</v>
       </c>
       <c r="D44" t="n">
-        <v>3824.31201171875</v>
+        <v>592.519287109375</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C45" t="n">
-        <v>35.27</v>
+        <v>47.01</v>
       </c>
       <c r="D45" t="n">
-        <v>4202.16748046875</v>
+        <v>812.9267578125</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C46" t="n">
-        <v>32.05</v>
+        <v>47.18</v>
       </c>
       <c r="D46" t="n">
-        <v>3001.80322265625</v>
+        <v>851.2677612304688</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C47" t="n">
-        <v>33.72</v>
+        <v>46.91</v>
       </c>
       <c r="D47" t="n">
-        <v>2869.0947265625</v>
+        <v>932.3508911132812</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C48" t="n">
-        <v>25.11</v>
+        <v>44.3</v>
       </c>
       <c r="D48" t="n">
-        <v>2264.0869140625</v>
+        <v>940.6935424804688</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C49" t="n">
-        <v>28.12</v>
+        <v>33.28</v>
       </c>
       <c r="D49" t="n">
-        <v>1929.813720703125</v>
+        <v>826.6166381835938</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="B50" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C50" t="n">
-        <v>19.72</v>
+        <v>33.75</v>
       </c>
       <c r="D50" t="n">
-        <v>1353.283813476562</v>
+        <v>983.1703491210938</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C51" t="n">
-        <v>21.15</v>
+        <v>39.81</v>
       </c>
       <c r="D51" t="n">
-        <v>938.6934204101562</v>
+        <v>968.9993286132812</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C52" t="n">
-        <v>37.3</v>
+        <v>39.39</v>
       </c>
       <c r="D52" t="n">
-        <v>3616.813720703125</v>
+        <v>272.1888122558594</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C53" t="n">
-        <v>40.17</v>
+        <v>40.08</v>
       </c>
       <c r="D53" t="n">
-        <v>4336.80126953125</v>
+        <v>398.0692138671875</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C54" t="n">
-        <v>37.58</v>
+        <v>45.68</v>
       </c>
       <c r="D54" t="n">
-        <v>3501.18505859375</v>
+        <v>569.6589965820312</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C55" t="n">
-        <v>36.99</v>
+        <v>44.81</v>
       </c>
       <c r="D55" t="n">
-        <v>3095.01025390625</v>
+        <v>533.545166015625</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>10</v>
       </c>
       <c r="B56" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C56" t="n">
-        <v>33.51</v>
+        <v>42.8</v>
       </c>
       <c r="D56" t="n">
-        <v>3023.28076171875</v>
+        <v>613.5011596679688</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C57" t="n">
-        <v>27.24</v>
+        <v>38.51</v>
       </c>
       <c r="D57" t="n">
-        <v>2928.443115234375</v>
+        <v>655.7177124023438</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C58" t="n">
-        <v>28.8</v>
+        <v>45.12</v>
       </c>
       <c r="D58" t="n">
-        <v>2151.21337890625</v>
+        <v>572.12548828125</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C59" t="n">
-        <v>33.54</v>
+        <v>27.59</v>
       </c>
       <c r="D59" t="n">
-        <v>2278.269775390625</v>
+        <v>780.0621337890625</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>10</v>
       </c>
       <c r="B60" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C60" t="n">
-        <v>32.73</v>
+        <v>48.98</v>
       </c>
       <c r="D60" t="n">
-        <v>1871.291748046875</v>
+        <v>877.2689208984375</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="B61" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C61" t="n">
-        <v>21.01</v>
+        <v>42.33</v>
       </c>
       <c r="D61" t="n">
-        <v>967.7421264648438</v>
+        <v>832.172119140625</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C62" t="n">
-        <v>29.36</v>
+        <v>41</v>
       </c>
       <c r="D62" t="n">
-        <v>2945.391357421875</v>
+        <v>274.5377502441406</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C63" t="n">
-        <v>39.88</v>
+        <v>44.89</v>
       </c>
       <c r="D63" t="n">
-        <v>3892.4462890625</v>
+        <v>394.6180419921875</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C64" t="n">
-        <v>26.47</v>
+        <v>48.2</v>
       </c>
       <c r="D64" t="n">
-        <v>3056.043212890625</v>
+        <v>540.4628295898438</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>12</v>
       </c>
       <c r="B65" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C65" t="n">
-        <v>35.65</v>
+        <v>43.09</v>
       </c>
       <c r="D65" t="n">
-        <v>3339.690185546875</v>
+        <v>523.4688110351562</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C66" t="n">
-        <v>37.89</v>
+        <v>41.02</v>
       </c>
       <c r="D66" t="n">
-        <v>3752.71142578125</v>
+        <v>453.8995971679688</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>12</v>
       </c>
       <c r="B67" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C67" t="n">
-        <v>35.45</v>
+        <v>46.26</v>
       </c>
       <c r="D67" t="n">
-        <v>2854.327392578125</v>
+        <v>536.4930419921875</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C68" t="n">
-        <v>36.39</v>
+        <v>42.16</v>
       </c>
       <c r="D68" t="n">
-        <v>2600.8203125</v>
+        <v>592.9448852539062</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C69" t="n">
-        <v>19.65</v>
+        <v>36.86</v>
       </c>
       <c r="D69" t="n">
-        <v>1842.997802734375</v>
+        <v>639.713134765625</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>12</v>
       </c>
       <c r="B70" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C70" t="n">
-        <v>25.66</v>
+        <v>41.28</v>
       </c>
       <c r="D70" t="n">
-        <v>1463.849365234375</v>
+        <v>757.3700561523438</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>12</v>
       </c>
       <c r="B71" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C71" t="n">
-        <v>21.38</v>
+        <v>33.95</v>
       </c>
       <c r="D71" t="n">
-        <v>822.1688232421875</v>
+        <v>657.4220581054688</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="C72" t="n">
-        <v>30.4</v>
+        <v>39.76</v>
       </c>
       <c r="D72" t="n">
-        <v>4290.37255859375</v>
+        <v>201.2449951171875</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="n">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="C73" t="n">
-        <v>33.81</v>
+        <v>35.22</v>
       </c>
       <c r="D73" t="n">
-        <v>2979.4365234375</v>
+        <v>294.9434204101562</v>
       </c>
     </row>
     <row r="74">
@@ -1468,13 +1468,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C74" t="n">
-        <v>32.64</v>
+        <v>45.1</v>
       </c>
       <c r="D74" t="n">
-        <v>3502.119873046875</v>
+        <v>418.42822265625</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1482,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C75" t="n">
-        <v>31.24</v>
+        <v>46.32</v>
       </c>
       <c r="D75" t="n">
-        <v>3264.999267578125</v>
+        <v>506.8740234375</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1496,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C76" t="n">
-        <v>27.5</v>
+        <v>38.64</v>
       </c>
       <c r="D76" t="n">
-        <v>2744.8427734375</v>
+        <v>348.3353881835938</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1510,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C77" t="n">
-        <v>35.41</v>
+        <v>47.16</v>
       </c>
       <c r="D77" t="n">
-        <v>3252.492431640625</v>
+        <v>480.1073608398438</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1524,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C78" t="n">
-        <v>28.98</v>
+        <v>48.56</v>
       </c>
       <c r="D78" t="n">
-        <v>2356.12353515625</v>
+        <v>485.9543151855469</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1538,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C79" t="n">
-        <v>32.08</v>
+        <v>47.64</v>
       </c>
       <c r="D79" t="n">
-        <v>1891.785034179688</v>
+        <v>531.7294311523438</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1552,13 @@
         <v>14</v>
       </c>
       <c r="B80" t="n">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C80" t="n">
-        <v>33.03</v>
+        <v>46.28</v>
       </c>
       <c r="D80" t="n">
-        <v>1428.8955078125</v>
+        <v>543.5053100585938</v>
       </c>
     </row>
     <row r="81">
@@ -1566,13 +1566,293 @@
         <v>14</v>
       </c>
       <c r="B81" t="n">
+        <v>250</v>
+      </c>
+      <c r="C81" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>607.9219360351562</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>16</v>
+      </c>
+      <c r="B82" t="n">
         <v>25</v>
       </c>
-      <c r="C81" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="D81" t="n">
-        <v>833.6995849609375</v>
+      <c r="C82" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="D82" t="n">
+        <v>221.8226470947266</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>16</v>
+      </c>
+      <c r="B83" t="n">
+        <v>50</v>
+      </c>
+      <c r="C83" t="n">
+        <v>46.41</v>
+      </c>
+      <c r="D83" t="n">
+        <v>330.8082275390625</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>16</v>
+      </c>
+      <c r="B84" t="n">
+        <v>75</v>
+      </c>
+      <c r="C84" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="D84" t="n">
+        <v>299.3126525878906</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>16</v>
+      </c>
+      <c r="B85" t="n">
+        <v>100</v>
+      </c>
+      <c r="C85" t="n">
+        <v>47.12</v>
+      </c>
+      <c r="D85" t="n">
+        <v>387.4151000976562</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>16</v>
+      </c>
+      <c r="B86" t="n">
+        <v>125</v>
+      </c>
+      <c r="C86" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="D86" t="n">
+        <v>335.9309692382812</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>16</v>
+      </c>
+      <c r="B87" t="n">
+        <v>150</v>
+      </c>
+      <c r="C87" t="n">
+        <v>47.26</v>
+      </c>
+      <c r="D87" t="n">
+        <v>454.4644165039062</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>16</v>
+      </c>
+      <c r="B88" t="n">
+        <v>175</v>
+      </c>
+      <c r="C88" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>508.7815551757812</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>16</v>
+      </c>
+      <c r="B89" t="n">
+        <v>200</v>
+      </c>
+      <c r="C89" t="n">
+        <v>48.44</v>
+      </c>
+      <c r="D89" t="n">
+        <v>473.7329406738281</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>16</v>
+      </c>
+      <c r="B90" t="n">
+        <v>225</v>
+      </c>
+      <c r="C90" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="D90" t="n">
+        <v>495.6270446777344</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>16</v>
+      </c>
+      <c r="B91" t="n">
+        <v>250</v>
+      </c>
+      <c r="C91" t="n">
+        <v>46.55</v>
+      </c>
+      <c r="D91" t="n">
+        <v>472.9613647460938</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>18</v>
+      </c>
+      <c r="B92" t="n">
+        <v>25</v>
+      </c>
+      <c r="C92" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="D92" t="n">
+        <v>216.0974426269531</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18</v>
+      </c>
+      <c r="B93" t="n">
+        <v>50</v>
+      </c>
+      <c r="C93" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="D93" t="n">
+        <v>278.6718444824219</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>18</v>
+      </c>
+      <c r="B94" t="n">
+        <v>75</v>
+      </c>
+      <c r="C94" t="n">
+        <v>44.15</v>
+      </c>
+      <c r="D94" t="n">
+        <v>242.6465606689453</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>18</v>
+      </c>
+      <c r="B95" t="n">
+        <v>100</v>
+      </c>
+      <c r="C95" t="n">
+        <v>47.93</v>
+      </c>
+      <c r="D95" t="n">
+        <v>391.3729248046875</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>18</v>
+      </c>
+      <c r="B96" t="n">
+        <v>125</v>
+      </c>
+      <c r="C96" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="D96" t="n">
+        <v>421.6983337402344</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>18</v>
+      </c>
+      <c r="B97" t="n">
+        <v>150</v>
+      </c>
+      <c r="C97" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="D97" t="n">
+        <v>406.8175354003906</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>18</v>
+      </c>
+      <c r="B98" t="n">
+        <v>175</v>
+      </c>
+      <c r="C98" t="n">
+        <v>38.71</v>
+      </c>
+      <c r="D98" t="n">
+        <v>184.8180389404297</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>18</v>
+      </c>
+      <c r="B99" t="n">
+        <v>200</v>
+      </c>
+      <c r="C99" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="D99" t="n">
+        <v>369.2672424316406</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>18</v>
+      </c>
+      <c r="B100" t="n">
+        <v>225</v>
+      </c>
+      <c r="C100" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="D100" t="n">
+        <v>406.4356689453125</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>18</v>
+      </c>
+      <c r="B101" t="n">
+        <v>250</v>
+      </c>
+      <c r="C101" t="n">
+        <v>42.65</v>
+      </c>
+      <c r="D101" t="n">
+        <v>321.3590087890625</v>
       </c>
     </row>
   </sheetData>

--- a/ANVNSimultaneous_1n_root_bank.xlsx
+++ b/ANVNSimultaneous_1n_root_bank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>23.27</v>
+        <v>21.69</v>
       </c>
       <c r="D2" t="n">
-        <v>1047.644897460938</v>
+        <v>1062.958374023438</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>19.24</v>
+        <v>25.52</v>
       </c>
       <c r="D3" t="n">
-        <v>1998.061889648438</v>
+        <v>3202.0830078125</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5</v>
+        <v>29.63</v>
       </c>
       <c r="D4" t="n">
-        <v>2846.924560546875</v>
+        <v>4660.9921875</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>24.19</v>
+        <v>21.69</v>
       </c>
       <c r="D5" t="n">
-        <v>3734.61474609375</v>
+        <v>5109.70361328125</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="C6" t="n">
-        <v>24.24</v>
+        <v>23.53</v>
       </c>
       <c r="D6" t="n">
-        <v>4446.236328125</v>
+        <v>7177.62255859375</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="C7" t="n">
-        <v>27.56</v>
+        <v>28.64</v>
       </c>
       <c r="D7" t="n">
-        <v>4346.8076171875</v>
+        <v>8752.3359375</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="C8" t="n">
-        <v>19.53</v>
+        <v>27.78</v>
       </c>
       <c r="D8" t="n">
-        <v>6061.6513671875</v>
+        <v>7173.6455078125</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="C9" t="n">
-        <v>23.88</v>
+        <v>29.45</v>
       </c>
       <c r="D9" t="n">
-        <v>5496.59716796875</v>
+        <v>6939.79443359375</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="C10" t="n">
-        <v>12.54</v>
+        <v>19.96</v>
       </c>
       <c r="D10" t="n">
-        <v>5480.7548828125</v>
+        <v>8496.759765625</v>
       </c>
     </row>
     <row r="11">
@@ -586,1273 +586,5473 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="C11" t="n">
-        <v>20.91</v>
+        <v>23.07</v>
       </c>
       <c r="D11" t="n">
-        <v>6475.22998046875</v>
+        <v>6319.84521484375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="C12" t="n">
-        <v>18.59</v>
+        <v>15.57</v>
       </c>
       <c r="D12" t="n">
-        <v>719.5391845703125</v>
+        <v>11678.041015625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>575</v>
       </c>
       <c r="C13" t="n">
-        <v>27.77</v>
+        <v>14.06</v>
       </c>
       <c r="D13" t="n">
-        <v>1203.484985351562</v>
+        <v>9509.6240234375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>625</v>
       </c>
       <c r="C14" t="n">
-        <v>34.94</v>
+        <v>16.35</v>
       </c>
       <c r="D14" t="n">
-        <v>2263.22021484375</v>
+        <v>10626.8173828125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="C15" t="n">
-        <v>24.08</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>2213.999755859375</v>
+        <v>11185.845703125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>125</v>
+        <v>725</v>
       </c>
       <c r="C16" t="n">
-        <v>33.65</v>
+        <v>16.97</v>
       </c>
       <c r="D16" t="n">
-        <v>2977.938232421875</v>
+        <v>10308.1806640625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>150</v>
+        <v>775</v>
       </c>
       <c r="C17" t="n">
-        <v>33.54</v>
+        <v>15.49</v>
       </c>
       <c r="D17" t="n">
-        <v>3633.86279296875</v>
+        <v>10019.7451171875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>175</v>
+        <v>825</v>
       </c>
       <c r="C18" t="n">
-        <v>27.48</v>
+        <v>15.98</v>
       </c>
       <c r="D18" t="n">
-        <v>3442.59521484375</v>
+        <v>10396.33984375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="C19" t="n">
-        <v>34.1</v>
+        <v>15.65</v>
       </c>
       <c r="D19" t="n">
-        <v>3815.79833984375</v>
+        <v>12978.1123046875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>225</v>
+        <v>925</v>
       </c>
       <c r="C20" t="n">
-        <v>32.75</v>
+        <v>16.91</v>
       </c>
       <c r="D20" t="n">
-        <v>4627.84326171875</v>
+        <v>12189.8125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>250</v>
+        <v>975</v>
       </c>
       <c r="C21" t="n">
-        <v>32.81</v>
+        <v>18.58</v>
       </c>
       <c r="D21" t="n">
-        <v>4511.478515625</v>
+        <v>13094.697265625</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>28.82</v>
+        <v>20.76</v>
       </c>
       <c r="D22" t="n">
-        <v>438.2752990722656</v>
+        <v>720.4324340820312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n">
-        <v>37.14</v>
+        <v>25.31</v>
       </c>
       <c r="D23" t="n">
-        <v>968.8855590820312</v>
+        <v>1820.495483398438</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C24" t="n">
-        <v>37.67</v>
+        <v>31.36</v>
       </c>
       <c r="D24" t="n">
-        <v>1270.669677734375</v>
+        <v>2828.900634765625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C25" t="n">
-        <v>39.44</v>
+        <v>31.77</v>
       </c>
       <c r="D25" t="n">
-        <v>1332.432861328125</v>
+        <v>4247.22216796875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="C26" t="n">
-        <v>34.66</v>
+        <v>32.26</v>
       </c>
       <c r="D26" t="n">
-        <v>1602.430786132812</v>
+        <v>4863.3017578125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="C27" t="n">
-        <v>33.75</v>
+        <v>34.44</v>
       </c>
       <c r="D27" t="n">
-        <v>1772.708984375</v>
+        <v>5069.0283203125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="C28" t="n">
-        <v>40.63</v>
+        <v>36.92</v>
       </c>
       <c r="D28" t="n">
-        <v>2071.416748046875</v>
+        <v>6372.498046875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="C29" t="n">
-        <v>31.7</v>
+        <v>14.77</v>
       </c>
       <c r="D29" t="n">
-        <v>2517.695556640625</v>
+        <v>6411.13818359375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="C30" t="n">
-        <v>37.86</v>
+        <v>24.22</v>
       </c>
       <c r="D30" t="n">
-        <v>2330.224609375</v>
+        <v>7032.19189453125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="C31" t="n">
-        <v>42.57</v>
+        <v>26.9</v>
       </c>
       <c r="D31" t="n">
-        <v>2492.625732421875</v>
+        <v>6281.16943359375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="C32" t="n">
-        <v>32.5</v>
+        <v>21.23</v>
       </c>
       <c r="D32" t="n">
-        <v>452.8054809570312</v>
+        <v>6544.49853515625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>50</v>
+        <v>575</v>
       </c>
       <c r="C33" t="n">
-        <v>38.9</v>
+        <v>14.39</v>
       </c>
       <c r="D33" t="n">
-        <v>540.5730590820312</v>
+        <v>6139.7880859375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>75</v>
+        <v>625</v>
       </c>
       <c r="C34" t="n">
-        <v>37.88</v>
+        <v>27.08</v>
       </c>
       <c r="D34" t="n">
-        <v>661.6842041015625</v>
+        <v>7356.9716796875</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="C35" t="n">
-        <v>33.63</v>
+        <v>31.78</v>
       </c>
       <c r="D35" t="n">
-        <v>774.3934936523438</v>
+        <v>8176.10986328125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>125</v>
+        <v>725</v>
       </c>
       <c r="C36" t="n">
-        <v>37.24</v>
+        <v>25.95</v>
       </c>
       <c r="D36" t="n">
-        <v>1020.722900390625</v>
+        <v>9195.974609375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>150</v>
+        <v>775</v>
       </c>
       <c r="C37" t="n">
-        <v>39.48</v>
+        <v>22.9</v>
       </c>
       <c r="D37" t="n">
-        <v>1176.50927734375</v>
+        <v>8974.6455078125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>175</v>
+        <v>825</v>
       </c>
       <c r="C38" t="n">
-        <v>39.63</v>
+        <v>17.17</v>
       </c>
       <c r="D38" t="n">
-        <v>1195.978881835938</v>
+        <v>9897.7353515625</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="C39" t="n">
-        <v>44.37</v>
+        <v>29.2</v>
       </c>
       <c r="D39" t="n">
-        <v>1357.848388671875</v>
+        <v>9245.2822265625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>225</v>
+        <v>925</v>
       </c>
       <c r="C40" t="n">
-        <v>37.73</v>
+        <v>16.17</v>
       </c>
       <c r="D40" t="n">
-        <v>1457.157592773438</v>
+        <v>10369.5419921875</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>250</v>
+        <v>975</v>
       </c>
       <c r="C41" t="n">
-        <v>40.23</v>
+        <v>18.63</v>
       </c>
       <c r="D41" t="n">
-        <v>1515.15087890625</v>
+        <v>11444.31640625</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B42" t="n">
         <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>33.65</v>
+        <v>30.34</v>
       </c>
       <c r="D42" t="n">
-        <v>444.1559753417969</v>
+        <v>649.2451171875</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B43" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C43" t="n">
-        <v>36</v>
+        <v>39.95</v>
       </c>
       <c r="D43" t="n">
-        <v>617.861572265625</v>
+        <v>1076.383911132812</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C44" t="n">
-        <v>38.77</v>
+        <v>34.59</v>
       </c>
       <c r="D44" t="n">
-        <v>592.519287109375</v>
+        <v>1503.367553710938</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B45" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>47.01</v>
+        <v>40.19</v>
       </c>
       <c r="D45" t="n">
-        <v>812.9267578125</v>
+        <v>1886.339599609375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B46" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="C46" t="n">
-        <v>47.18</v>
+        <v>34.75</v>
       </c>
       <c r="D46" t="n">
-        <v>851.2677612304688</v>
+        <v>2356.54345703125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="C47" t="n">
-        <v>46.91</v>
+        <v>33.4</v>
       </c>
       <c r="D47" t="n">
-        <v>932.3508911132812</v>
+        <v>2512.604248046875</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B48" t="n">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="C48" t="n">
-        <v>44.3</v>
+        <v>24.88</v>
       </c>
       <c r="D48" t="n">
-        <v>940.6935424804688</v>
+        <v>2761.050048828125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B49" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="C49" t="n">
-        <v>33.28</v>
+        <v>21.11</v>
       </c>
       <c r="D49" t="n">
-        <v>826.6166381835938</v>
+        <v>3046.4404296875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B50" t="n">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="C50" t="n">
-        <v>33.75</v>
+        <v>28.29</v>
       </c>
       <c r="D50" t="n">
-        <v>983.1703491210938</v>
+        <v>3428.9296875</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B51" t="n">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="C51" t="n">
-        <v>39.81</v>
+        <v>16.89</v>
       </c>
       <c r="D51" t="n">
-        <v>968.9993286132812</v>
+        <v>3735.843017578125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="C52" t="n">
-        <v>39.39</v>
+        <v>34.06</v>
       </c>
       <c r="D52" t="n">
-        <v>272.1888122558594</v>
+        <v>4036.789794921875</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B53" t="n">
-        <v>50</v>
+        <v>575</v>
       </c>
       <c r="C53" t="n">
-        <v>40.08</v>
+        <v>30.59</v>
       </c>
       <c r="D53" t="n">
-        <v>398.0692138671875</v>
+        <v>4410.42626953125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B54" t="n">
-        <v>75</v>
+        <v>625</v>
       </c>
       <c r="C54" t="n">
-        <v>45.68</v>
+        <v>30.63</v>
       </c>
       <c r="D54" t="n">
-        <v>569.6589965820312</v>
+        <v>4757.58642578125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B55" t="n">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="C55" t="n">
-        <v>44.81</v>
+        <v>31.37</v>
       </c>
       <c r="D55" t="n">
-        <v>533.545166015625</v>
+        <v>4713.98681640625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B56" t="n">
-        <v>125</v>
+        <v>725</v>
       </c>
       <c r="C56" t="n">
-        <v>42.8</v>
+        <v>30.76</v>
       </c>
       <c r="D56" t="n">
-        <v>613.5011596679688</v>
+        <v>5074.76318359375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B57" t="n">
-        <v>150</v>
+        <v>775</v>
       </c>
       <c r="C57" t="n">
-        <v>38.51</v>
+        <v>27.88</v>
       </c>
       <c r="D57" t="n">
-        <v>655.7177124023438</v>
+        <v>4445.33642578125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B58" t="n">
-        <v>175</v>
+        <v>825</v>
       </c>
       <c r="C58" t="n">
-        <v>45.12</v>
+        <v>36.8</v>
       </c>
       <c r="D58" t="n">
-        <v>572.12548828125</v>
+        <v>5492.1474609375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B59" t="n">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="C59" t="n">
-        <v>27.59</v>
+        <v>23.78</v>
       </c>
       <c r="D59" t="n">
-        <v>780.0621337890625</v>
+        <v>4237.56494140625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B60" t="n">
-        <v>225</v>
+        <v>925</v>
       </c>
       <c r="C60" t="n">
-        <v>48.98</v>
+        <v>31.23</v>
       </c>
       <c r="D60" t="n">
-        <v>877.2689208984375</v>
+        <v>5479.4453125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B61" t="n">
-        <v>250</v>
+        <v>975</v>
       </c>
       <c r="C61" t="n">
-        <v>42.33</v>
+        <v>23.11</v>
       </c>
       <c r="D61" t="n">
-        <v>832.172119140625</v>
+        <v>5586.2060546875</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B62" t="n">
         <v>25</v>
       </c>
       <c r="C62" t="n">
-        <v>41</v>
+        <v>29.78</v>
       </c>
       <c r="D62" t="n">
-        <v>274.5377502441406</v>
+        <v>422.8017578125</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B63" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C63" t="n">
-        <v>44.89</v>
+        <v>42.76</v>
       </c>
       <c r="D63" t="n">
-        <v>394.6180419921875</v>
+        <v>817.638916015625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B64" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C64" t="n">
-        <v>48.2</v>
+        <v>42.86</v>
       </c>
       <c r="D64" t="n">
-        <v>540.4628295898438</v>
+        <v>1096.602661132812</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B65" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C65" t="n">
-        <v>43.09</v>
+        <v>37.11</v>
       </c>
       <c r="D65" t="n">
-        <v>523.4688110351562</v>
+        <v>1084.442504882812</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B66" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="C66" t="n">
-        <v>41.02</v>
+        <v>38.86</v>
       </c>
       <c r="D66" t="n">
-        <v>453.8995971679688</v>
+        <v>1342.07275390625</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B67" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="C67" t="n">
-        <v>46.26</v>
+        <v>35.61</v>
       </c>
       <c r="D67" t="n">
-        <v>536.4930419921875</v>
+        <v>1840.378784179688</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B68" t="n">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="C68" t="n">
-        <v>42.16</v>
+        <v>21.92</v>
       </c>
       <c r="D68" t="n">
-        <v>592.9448852539062</v>
+        <v>1794.837646484375</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B69" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="C69" t="n">
-        <v>36.86</v>
+        <v>28.25</v>
       </c>
       <c r="D69" t="n">
-        <v>639.713134765625</v>
+        <v>1876.885620117188</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B70" t="n">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="C70" t="n">
-        <v>41.28</v>
+        <v>36.41</v>
       </c>
       <c r="D70" t="n">
-        <v>757.3700561523438</v>
+        <v>2151.739013671875</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B71" t="n">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="C71" t="n">
-        <v>33.95</v>
+        <v>30.95</v>
       </c>
       <c r="D71" t="n">
-        <v>657.4220581054688</v>
+        <v>2468.220703125</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B72" t="n">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="C72" t="n">
-        <v>39.76</v>
+        <v>28.77</v>
       </c>
       <c r="D72" t="n">
-        <v>201.2449951171875</v>
+        <v>2467.651123046875</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B73" t="n">
-        <v>50</v>
+        <v>575</v>
       </c>
       <c r="C73" t="n">
-        <v>35.22</v>
+        <v>39.2</v>
       </c>
       <c r="D73" t="n">
-        <v>294.9434204101562</v>
+        <v>3051.028564453125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B74" t="n">
-        <v>75</v>
+        <v>625</v>
       </c>
       <c r="C74" t="n">
-        <v>45.1</v>
+        <v>31.59</v>
       </c>
       <c r="D74" t="n">
-        <v>418.42822265625</v>
+        <v>2907.858642578125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B75" t="n">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="C75" t="n">
-        <v>46.32</v>
+        <v>38.78</v>
       </c>
       <c r="D75" t="n">
-        <v>506.8740234375</v>
+        <v>3131.030517578125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B76" t="n">
-        <v>125</v>
+        <v>725</v>
       </c>
       <c r="C76" t="n">
-        <v>38.64</v>
+        <v>28.28</v>
       </c>
       <c r="D76" t="n">
-        <v>348.3353881835938</v>
+        <v>2959.156005859375</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B77" t="n">
-        <v>150</v>
+        <v>775</v>
       </c>
       <c r="C77" t="n">
-        <v>47.16</v>
+        <v>31.45</v>
       </c>
       <c r="D77" t="n">
-        <v>480.1073608398438</v>
+        <v>3259.4375</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B78" t="n">
-        <v>175</v>
+        <v>825</v>
       </c>
       <c r="C78" t="n">
-        <v>48.56</v>
+        <v>31.77</v>
       </c>
       <c r="D78" t="n">
-        <v>485.9543151855469</v>
+        <v>3748.6923828125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B79" t="n">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="C79" t="n">
-        <v>47.64</v>
+        <v>23.85</v>
       </c>
       <c r="D79" t="n">
-        <v>531.7294311523438</v>
+        <v>3753.443115234375</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B80" t="n">
-        <v>225</v>
+        <v>925</v>
       </c>
       <c r="C80" t="n">
-        <v>46.28</v>
+        <v>23.4</v>
       </c>
       <c r="D80" t="n">
-        <v>543.5053100585938</v>
+        <v>3933.166259765625</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B81" t="n">
-        <v>250</v>
+        <v>975</v>
       </c>
       <c r="C81" t="n">
-        <v>48.6</v>
+        <v>27.18</v>
       </c>
       <c r="D81" t="n">
-        <v>607.9219360351562</v>
+        <v>4451.3701171875</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B82" t="n">
         <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>39.26</v>
+        <v>33.47</v>
       </c>
       <c r="D82" t="n">
-        <v>221.8226470947266</v>
+        <v>294.2805786132812</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B83" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C83" t="n">
-        <v>46.41</v>
+        <v>44.69</v>
       </c>
       <c r="D83" t="n">
-        <v>330.8082275390625</v>
+        <v>801.32470703125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B84" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C84" t="n">
-        <v>39.62</v>
+        <v>37.74</v>
       </c>
       <c r="D84" t="n">
-        <v>299.3126525878906</v>
+        <v>865.5991821289062</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B85" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C85" t="n">
-        <v>47.12</v>
+        <v>21.5</v>
       </c>
       <c r="D85" t="n">
-        <v>387.4151000976562</v>
+        <v>853.9661865234375</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B86" t="n">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="C86" t="n">
-        <v>43.64</v>
+        <v>41.53</v>
       </c>
       <c r="D86" t="n">
-        <v>335.9309692382812</v>
+        <v>1084.915771484375</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B87" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="C87" t="n">
-        <v>47.26</v>
+        <v>46.93</v>
       </c>
       <c r="D87" t="n">
-        <v>454.4644165039062</v>
+        <v>1183.673461914062</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B88" t="n">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="C88" t="n">
-        <v>43.2</v>
+        <v>41.1</v>
       </c>
       <c r="D88" t="n">
-        <v>508.7815551757812</v>
+        <v>1340.81982421875</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B89" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="C89" t="n">
-        <v>48.44</v>
+        <v>33.21</v>
       </c>
       <c r="D89" t="n">
-        <v>473.7329406738281</v>
+        <v>1464.821044921875</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B90" t="n">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="C90" t="n">
-        <v>47.43</v>
+        <v>33.29</v>
       </c>
       <c r="D90" t="n">
-        <v>495.6270446777344</v>
+        <v>1640.930297851562</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B91" t="n">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="C91" t="n">
-        <v>46.55</v>
+        <v>35.97</v>
       </c>
       <c r="D91" t="n">
-        <v>472.9613647460938</v>
+        <v>1425.892822265625</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B92" t="n">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="C92" t="n">
-        <v>44.51</v>
+        <v>22.36</v>
       </c>
       <c r="D92" t="n">
-        <v>216.0974426269531</v>
+        <v>1866.074096679688</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B93" t="n">
-        <v>50</v>
+        <v>575</v>
       </c>
       <c r="C93" t="n">
-        <v>42.25</v>
+        <v>30.46</v>
       </c>
       <c r="D93" t="n">
-        <v>278.6718444824219</v>
+        <v>2174.45849609375</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B94" t="n">
-        <v>75</v>
+        <v>625</v>
       </c>
       <c r="C94" t="n">
-        <v>44.15</v>
+        <v>33.58</v>
       </c>
       <c r="D94" t="n">
-        <v>242.6465606689453</v>
+        <v>2081.620849609375</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B95" t="n">
-        <v>100</v>
+        <v>675</v>
       </c>
       <c r="C95" t="n">
-        <v>47.93</v>
+        <v>28.23</v>
       </c>
       <c r="D95" t="n">
-        <v>391.3729248046875</v>
+        <v>2471.3486328125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B96" t="n">
-        <v>125</v>
+        <v>725</v>
       </c>
       <c r="C96" t="n">
-        <v>47.15</v>
+        <v>32.04</v>
       </c>
       <c r="D96" t="n">
-        <v>421.6983337402344</v>
+        <v>2335.1201171875</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B97" t="n">
-        <v>150</v>
+        <v>775</v>
       </c>
       <c r="C97" t="n">
-        <v>47.29</v>
+        <v>21.25</v>
       </c>
       <c r="D97" t="n">
-        <v>406.8175354003906</v>
+        <v>2559.18994140625</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B98" t="n">
-        <v>175</v>
+        <v>825</v>
       </c>
       <c r="C98" t="n">
-        <v>38.71</v>
+        <v>31.16</v>
       </c>
       <c r="D98" t="n">
-        <v>184.8180389404297</v>
+        <v>2551.334716796875</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B99" t="n">
-        <v>200</v>
+        <v>875</v>
       </c>
       <c r="C99" t="n">
-        <v>47.82</v>
+        <v>31.55</v>
       </c>
       <c r="D99" t="n">
-        <v>369.2672424316406</v>
+        <v>2636.990478515625</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B100" t="n">
-        <v>225</v>
+        <v>925</v>
       </c>
       <c r="C100" t="n">
-        <v>47.85</v>
+        <v>24.95</v>
       </c>
       <c r="D100" t="n">
-        <v>406.4356689453125</v>
+        <v>2820.6298828125</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>8</v>
+      </c>
+      <c r="B101" t="n">
+        <v>975</v>
+      </c>
+      <c r="C101" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3042.661865234375</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10</v>
+      </c>
+      <c r="B102" t="n">
+        <v>25</v>
+      </c>
+      <c r="C102" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="D102" t="n">
+        <v>362.3736267089844</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10</v>
+      </c>
+      <c r="B103" t="n">
+        <v>75</v>
+      </c>
+      <c r="C103" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="D103" t="n">
+        <v>639.2161865234375</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10</v>
+      </c>
+      <c r="B104" t="n">
+        <v>125</v>
+      </c>
+      <c r="C104" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="D104" t="n">
+        <v>619.3763427734375</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10</v>
+      </c>
+      <c r="B105" t="n">
+        <v>175</v>
+      </c>
+      <c r="C105" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="D105" t="n">
+        <v>636.9129028320312</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10</v>
+      </c>
+      <c r="B106" t="n">
+        <v>225</v>
+      </c>
+      <c r="C106" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="D106" t="n">
+        <v>766.4183959960938</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10</v>
+      </c>
+      <c r="B107" t="n">
+        <v>275</v>
+      </c>
+      <c r="C107" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="D107" t="n">
+        <v>848.1329345703125</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10</v>
+      </c>
+      <c r="B108" t="n">
+        <v>325</v>
+      </c>
+      <c r="C108" t="n">
+        <v>45.39</v>
+      </c>
+      <c r="D108" t="n">
+        <v>995.9422607421875</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10</v>
+      </c>
+      <c r="B109" t="n">
+        <v>375</v>
+      </c>
+      <c r="C109" t="n">
+        <v>45.47</v>
+      </c>
+      <c r="D109" t="n">
+        <v>986.9851684570312</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10</v>
+      </c>
+      <c r="B110" t="n">
+        <v>425</v>
+      </c>
+      <c r="C110" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1169.558227539062</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="n">
+        <v>475</v>
+      </c>
+      <c r="C111" t="n">
+        <v>38.06</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1128.675903320312</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10</v>
+      </c>
+      <c r="B112" t="n">
+        <v>525</v>
+      </c>
+      <c r="C112" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1382.108764648438</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>10</v>
+      </c>
+      <c r="B113" t="n">
+        <v>575</v>
+      </c>
+      <c r="C113" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1217.499145507812</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10</v>
+      </c>
+      <c r="B114" t="n">
+        <v>625</v>
+      </c>
+      <c r="C114" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1444.784057617188</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>10</v>
+      </c>
+      <c r="B115" t="n">
+        <v>675</v>
+      </c>
+      <c r="C115" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1383.19287109375</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B116" t="n">
+        <v>725</v>
+      </c>
+      <c r="C116" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1750.377197265625</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10</v>
+      </c>
+      <c r="B117" t="n">
+        <v>775</v>
+      </c>
+      <c r="C117" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1762.567016601562</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" t="n">
+        <v>825</v>
+      </c>
+      <c r="C118" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1612.347534179688</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10</v>
+      </c>
+      <c r="B119" t="n">
+        <v>875</v>
+      </c>
+      <c r="C119" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2045.037231445312</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10</v>
+      </c>
+      <c r="B120" t="n">
+        <v>925</v>
+      </c>
+      <c r="C120" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2022.713256835938</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10</v>
+      </c>
+      <c r="B121" t="n">
+        <v>975</v>
+      </c>
+      <c r="C121" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1898.205078125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>12</v>
+      </c>
+      <c r="B122" t="n">
+        <v>25</v>
+      </c>
+      <c r="C122" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="D122" t="n">
+        <v>346.8060607910156</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>12</v>
+      </c>
+      <c r="B123" t="n">
+        <v>75</v>
+      </c>
+      <c r="C123" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="D123" t="n">
+        <v>340.0569458007812</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>12</v>
+      </c>
+      <c r="B124" t="n">
+        <v>125</v>
+      </c>
+      <c r="C124" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="D124" t="n">
+        <v>460.5906677246094</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>12</v>
+      </c>
+      <c r="B125" t="n">
+        <v>175</v>
+      </c>
+      <c r="C125" t="n">
+        <v>45.56</v>
+      </c>
+      <c r="D125" t="n">
+        <v>492.2223510742188</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>12</v>
+      </c>
+      <c r="B126" t="n">
+        <v>225</v>
+      </c>
+      <c r="C126" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="D126" t="n">
+        <v>539.7018432617188</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" t="n">
+        <v>275</v>
+      </c>
+      <c r="C127" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="D127" t="n">
+        <v>796.4330444335938</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>12</v>
+      </c>
+      <c r="B128" t="n">
+        <v>325</v>
+      </c>
+      <c r="C128" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="D128" t="n">
+        <v>706.3328247070312</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>12</v>
+      </c>
+      <c r="B129" t="n">
+        <v>375</v>
+      </c>
+      <c r="C129" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="D129" t="n">
+        <v>876.9338989257812</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>12</v>
+      </c>
+      <c r="B130" t="n">
+        <v>425</v>
+      </c>
+      <c r="C130" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="D130" t="n">
+        <v>684.0192260742188</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>12</v>
+      </c>
+      <c r="B131" t="n">
+        <v>475</v>
+      </c>
+      <c r="C131" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>958.6367797851562</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>12</v>
+      </c>
+      <c r="B132" t="n">
+        <v>525</v>
+      </c>
+      <c r="C132" t="n">
+        <v>35.55</v>
+      </c>
+      <c r="D132" t="n">
+        <v>954.6748046875</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>12</v>
+      </c>
+      <c r="B133" t="n">
+        <v>575</v>
+      </c>
+      <c r="C133" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1099.365966796875</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" t="n">
+        <v>625</v>
+      </c>
+      <c r="C134" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1249.002197265625</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>12</v>
+      </c>
+      <c r="B135" t="n">
+        <v>675</v>
+      </c>
+      <c r="C135" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1163.392211914062</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" t="n">
+        <v>725</v>
+      </c>
+      <c r="C136" t="n">
+        <v>37.13</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1437.235473632812</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>12</v>
+      </c>
+      <c r="B137" t="n">
+        <v>775</v>
+      </c>
+      <c r="C137" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1547.573364257812</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>12</v>
+      </c>
+      <c r="B138" t="n">
+        <v>825</v>
+      </c>
+      <c r="C138" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1478.717895507812</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>12</v>
+      </c>
+      <c r="B139" t="n">
+        <v>875</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1641.170532226562</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>12</v>
+      </c>
+      <c r="B140" t="n">
+        <v>925</v>
+      </c>
+      <c r="C140" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1893.783081054688</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>12</v>
+      </c>
+      <c r="B141" t="n">
+        <v>975</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1807.329345703125</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>14</v>
+      </c>
+      <c r="B142" t="n">
+        <v>25</v>
+      </c>
+      <c r="C142" t="n">
+        <v>38.32</v>
+      </c>
+      <c r="D142" t="n">
+        <v>336.5123596191406</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>14</v>
+      </c>
+      <c r="B143" t="n">
+        <v>75</v>
+      </c>
+      <c r="C143" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="D143" t="n">
+        <v>306.788818359375</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>14</v>
+      </c>
+      <c r="B144" t="n">
+        <v>125</v>
+      </c>
+      <c r="C144" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="D144" t="n">
+        <v>456.7040100097656</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>14</v>
+      </c>
+      <c r="B145" t="n">
+        <v>175</v>
+      </c>
+      <c r="C145" t="n">
+        <v>45.39</v>
+      </c>
+      <c r="D145" t="n">
+        <v>509.5235290527344</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>14</v>
+      </c>
+      <c r="B146" t="n">
+        <v>225</v>
+      </c>
+      <c r="C146" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="D146" t="n">
+        <v>559.7413940429688</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>14</v>
+      </c>
+      <c r="B147" t="n">
+        <v>275</v>
+      </c>
+      <c r="C147" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="D147" t="n">
+        <v>651.4144287109375</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>14</v>
+      </c>
+      <c r="B148" t="n">
+        <v>325</v>
+      </c>
+      <c r="C148" t="n">
+        <v>48.43</v>
+      </c>
+      <c r="D148" t="n">
+        <v>627.3847045898438</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>14</v>
+      </c>
+      <c r="B149" t="n">
+        <v>375</v>
+      </c>
+      <c r="C149" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>616.2760620117188</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>14</v>
+      </c>
+      <c r="B150" t="n">
+        <v>425</v>
+      </c>
+      <c r="C150" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="D150" t="n">
+        <v>758.7684936523438</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>14</v>
+      </c>
+      <c r="B151" t="n">
+        <v>475</v>
+      </c>
+      <c r="C151" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="D151" t="n">
+        <v>810.4969482421875</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>14</v>
+      </c>
+      <c r="B152" t="n">
+        <v>525</v>
+      </c>
+      <c r="C152" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1185.583251953125</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>14</v>
+      </c>
+      <c r="B153" t="n">
+        <v>575</v>
+      </c>
+      <c r="C153" t="n">
+        <v>38.61</v>
+      </c>
+      <c r="D153" t="n">
+        <v>805.3360595703125</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>14</v>
+      </c>
+      <c r="B154" t="n">
+        <v>625</v>
+      </c>
+      <c r="C154" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="D154" t="n">
+        <v>950.7875366210938</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>14</v>
+      </c>
+      <c r="B155" t="n">
+        <v>675</v>
+      </c>
+      <c r="C155" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="D155" t="n">
+        <v>996.0682373046875</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>14</v>
+      </c>
+      <c r="B156" t="n">
+        <v>725</v>
+      </c>
+      <c r="C156" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1275.746704101562</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>14</v>
+      </c>
+      <c r="B157" t="n">
+        <v>775</v>
+      </c>
+      <c r="C157" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1020.805053710938</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>14</v>
+      </c>
+      <c r="B158" t="n">
+        <v>825</v>
+      </c>
+      <c r="C158" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1447.465454101562</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>14</v>
+      </c>
+      <c r="B159" t="n">
+        <v>875</v>
+      </c>
+      <c r="C159" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1197.625610351562</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>14</v>
+      </c>
+      <c r="B160" t="n">
+        <v>925</v>
+      </c>
+      <c r="C160" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1350.498046875</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>14</v>
+      </c>
+      <c r="B161" t="n">
+        <v>975</v>
+      </c>
+      <c r="C161" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1441.756591796875</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>16</v>
+      </c>
+      <c r="B162" t="n">
+        <v>25</v>
+      </c>
+      <c r="C162" t="n">
+        <v>38.39</v>
+      </c>
+      <c r="D162" t="n">
+        <v>177.1705780029297</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>16</v>
+      </c>
+      <c r="B163" t="n">
+        <v>75</v>
+      </c>
+      <c r="C163" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="D163" t="n">
+        <v>395.1937255859375</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>16</v>
+      </c>
+      <c r="B164" t="n">
+        <v>125</v>
+      </c>
+      <c r="C164" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="D164" t="n">
+        <v>404.7195129394531</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>16</v>
+      </c>
+      <c r="B165" t="n">
+        <v>175</v>
+      </c>
+      <c r="C165" t="n">
+        <v>47.54</v>
+      </c>
+      <c r="D165" t="n">
+        <v>439.885498046875</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>16</v>
+      </c>
+      <c r="B166" t="n">
+        <v>225</v>
+      </c>
+      <c r="C166" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="D166" t="n">
+        <v>435.2162780761719</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>16</v>
+      </c>
+      <c r="B167" t="n">
+        <v>275</v>
+      </c>
+      <c r="C167" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="D167" t="n">
+        <v>535.6602783203125</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>16</v>
+      </c>
+      <c r="B168" t="n">
+        <v>325</v>
+      </c>
+      <c r="C168" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="D168" t="n">
+        <v>515.1488037109375</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>16</v>
+      </c>
+      <c r="B169" t="n">
+        <v>375</v>
+      </c>
+      <c r="C169" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="D169" t="n">
+        <v>471.5901794433594</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>16</v>
+      </c>
+      <c r="B170" t="n">
+        <v>425</v>
+      </c>
+      <c r="C170" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="D170" t="n">
+        <v>614.183837890625</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>16</v>
+      </c>
+      <c r="B171" t="n">
+        <v>475</v>
+      </c>
+      <c r="C171" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>642.4039916992188</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>16</v>
+      </c>
+      <c r="B172" t="n">
+        <v>525</v>
+      </c>
+      <c r="C172" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>683.6736450195312</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>16</v>
+      </c>
+      <c r="B173" t="n">
+        <v>575</v>
+      </c>
+      <c r="C173" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="D173" t="n">
+        <v>746.8624267578125</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>16</v>
+      </c>
+      <c r="B174" t="n">
+        <v>625</v>
+      </c>
+      <c r="C174" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="D174" t="n">
+        <v>731.320068359375</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>16</v>
+      </c>
+      <c r="B175" t="n">
+        <v>675</v>
+      </c>
+      <c r="C175" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="D175" t="n">
+        <v>683.9296264648438</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>16</v>
+      </c>
+      <c r="B176" t="n">
+        <v>725</v>
+      </c>
+      <c r="C176" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>891.2872314453125</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>16</v>
+      </c>
+      <c r="B177" t="n">
+        <v>775</v>
+      </c>
+      <c r="C177" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1037.602416992188</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>16</v>
+      </c>
+      <c r="B178" t="n">
+        <v>825</v>
+      </c>
+      <c r="C178" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1257.90185546875</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>16</v>
+      </c>
+      <c r="B179" t="n">
+        <v>875</v>
+      </c>
+      <c r="C179" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1117.6044921875</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>16</v>
+      </c>
+      <c r="B180" t="n">
+        <v>925</v>
+      </c>
+      <c r="C180" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="D180" t="n">
+        <v>963.584716796875</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>16</v>
+      </c>
+      <c r="B181" t="n">
+        <v>975</v>
+      </c>
+      <c r="C181" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1431.592041015625</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
         <v>18</v>
       </c>
-      <c r="B101" t="n">
-        <v>250</v>
-      </c>
-      <c r="C101" t="n">
-        <v>42.65</v>
-      </c>
-      <c r="D101" t="n">
-        <v>321.3590087890625</v>
+      <c r="B182" t="n">
+        <v>25</v>
+      </c>
+      <c r="C182" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="D182" t="n">
+        <v>215.0729370117188</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>18</v>
+      </c>
+      <c r="B183" t="n">
+        <v>75</v>
+      </c>
+      <c r="C183" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>286.4499816894531</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>18</v>
+      </c>
+      <c r="B184" t="n">
+        <v>125</v>
+      </c>
+      <c r="C184" t="n">
+        <v>41.91</v>
+      </c>
+      <c r="D184" t="n">
+        <v>266.9181213378906</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>18</v>
+      </c>
+      <c r="B185" t="n">
+        <v>175</v>
+      </c>
+      <c r="C185" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="D185" t="n">
+        <v>244.5114593505859</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>18</v>
+      </c>
+      <c r="B186" t="n">
+        <v>225</v>
+      </c>
+      <c r="C186" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="D186" t="n">
+        <v>417.8986206054688</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>18</v>
+      </c>
+      <c r="B187" t="n">
+        <v>275</v>
+      </c>
+      <c r="C187" t="n">
+        <v>47.72</v>
+      </c>
+      <c r="D187" t="n">
+        <v>426.7842102050781</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>18</v>
+      </c>
+      <c r="B188" t="n">
+        <v>325</v>
+      </c>
+      <c r="C188" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="D188" t="n">
+        <v>554.2315673828125</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>18</v>
+      </c>
+      <c r="B189" t="n">
+        <v>375</v>
+      </c>
+      <c r="C189" t="n">
+        <v>31.99</v>
+      </c>
+      <c r="D189" t="n">
+        <v>576.1651611328125</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>18</v>
+      </c>
+      <c r="B190" t="n">
+        <v>425</v>
+      </c>
+      <c r="C190" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D190" t="n">
+        <v>687.109375</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>18</v>
+      </c>
+      <c r="B191" t="n">
+        <v>475</v>
+      </c>
+      <c r="C191" t="n">
+        <v>48.13</v>
+      </c>
+      <c r="D191" t="n">
+        <v>446.0343017578125</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>18</v>
+      </c>
+      <c r="B192" t="n">
+        <v>525</v>
+      </c>
+      <c r="C192" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="D192" t="n">
+        <v>586.5421752929688</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>18</v>
+      </c>
+      <c r="B193" t="n">
+        <v>575</v>
+      </c>
+      <c r="C193" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="D193" t="n">
+        <v>649.2550659179688</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>18</v>
+      </c>
+      <c r="B194" t="n">
+        <v>625</v>
+      </c>
+      <c r="C194" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="D194" t="n">
+        <v>696.34716796875</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>18</v>
+      </c>
+      <c r="B195" t="n">
+        <v>675</v>
+      </c>
+      <c r="C195" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>582.4581298828125</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>18</v>
+      </c>
+      <c r="B196" t="n">
+        <v>725</v>
+      </c>
+      <c r="C196" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="D196" t="n">
+        <v>745.8617553710938</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>18</v>
+      </c>
+      <c r="B197" t="n">
+        <v>775</v>
+      </c>
+      <c r="C197" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="D197" t="n">
+        <v>596.193115234375</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>18</v>
+      </c>
+      <c r="B198" t="n">
+        <v>825</v>
+      </c>
+      <c r="C198" t="n">
+        <v>33.28</v>
+      </c>
+      <c r="D198" t="n">
+        <v>841.2374267578125</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" t="n">
+        <v>875</v>
+      </c>
+      <c r="C199" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="D199" t="n">
+        <v>905.566162109375</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>18</v>
+      </c>
+      <c r="B200" t="n">
+        <v>925</v>
+      </c>
+      <c r="C200" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="D200" t="n">
+        <v>839.7754516601562</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" t="n">
+        <v>975</v>
+      </c>
+      <c r="C201" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="D201" t="n">
+        <v>963.5228271484375</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>20</v>
+      </c>
+      <c r="B202" t="n">
+        <v>25</v>
+      </c>
+      <c r="C202" t="n">
+        <v>42.26</v>
+      </c>
+      <c r="D202" t="n">
+        <v>189.4542083740234</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>20</v>
+      </c>
+      <c r="B203" t="n">
+        <v>75</v>
+      </c>
+      <c r="C203" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D203" t="n">
+        <v>258.1931457519531</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>20</v>
+      </c>
+      <c r="B204" t="n">
+        <v>125</v>
+      </c>
+      <c r="C204" t="n">
+        <v>48.03</v>
+      </c>
+      <c r="D204" t="n">
+        <v>346.2393188476562</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>20</v>
+      </c>
+      <c r="B205" t="n">
+        <v>175</v>
+      </c>
+      <c r="C205" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="D205" t="n">
+        <v>353.9289245605469</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>20</v>
+      </c>
+      <c r="B206" t="n">
+        <v>225</v>
+      </c>
+      <c r="C206" t="n">
+        <v>46.54</v>
+      </c>
+      <c r="D206" t="n">
+        <v>312.7937316894531</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>20</v>
+      </c>
+      <c r="B207" t="n">
+        <v>275</v>
+      </c>
+      <c r="C207" t="n">
+        <v>45.89</v>
+      </c>
+      <c r="D207" t="n">
+        <v>340.9345092773438</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>20</v>
+      </c>
+      <c r="B208" t="n">
+        <v>325</v>
+      </c>
+      <c r="C208" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>375.6318664550781</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>20</v>
+      </c>
+      <c r="B209" t="n">
+        <v>375</v>
+      </c>
+      <c r="C209" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="D209" t="n">
+        <v>369.0664672851562</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>20</v>
+      </c>
+      <c r="B210" t="n">
+        <v>425</v>
+      </c>
+      <c r="C210" t="n">
+        <v>47.12</v>
+      </c>
+      <c r="D210" t="n">
+        <v>472.9765625</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>20</v>
+      </c>
+      <c r="B211" t="n">
+        <v>475</v>
+      </c>
+      <c r="C211" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="D211" t="n">
+        <v>516.5438842773438</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>20</v>
+      </c>
+      <c r="B212" t="n">
+        <v>525</v>
+      </c>
+      <c r="C212" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="D212" t="n">
+        <v>444.7217712402344</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>20</v>
+      </c>
+      <c r="B213" t="n">
+        <v>575</v>
+      </c>
+      <c r="C213" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="D213" t="n">
+        <v>455.9775390625</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>20</v>
+      </c>
+      <c r="B214" t="n">
+        <v>625</v>
+      </c>
+      <c r="C214" t="n">
+        <v>35.57</v>
+      </c>
+      <c r="D214" t="n">
+        <v>534.5316772460938</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>20</v>
+      </c>
+      <c r="B215" t="n">
+        <v>675</v>
+      </c>
+      <c r="C215" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="D215" t="n">
+        <v>551.69921875</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>20</v>
+      </c>
+      <c r="B216" t="n">
+        <v>725</v>
+      </c>
+      <c r="C216" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="D216" t="n">
+        <v>658.9473266601562</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>20</v>
+      </c>
+      <c r="B217" t="n">
+        <v>775</v>
+      </c>
+      <c r="C217" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="D217" t="n">
+        <v>687.4825439453125</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>20</v>
+      </c>
+      <c r="B218" t="n">
+        <v>825</v>
+      </c>
+      <c r="C218" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="D218" t="n">
+        <v>719.9060668945312</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>20</v>
+      </c>
+      <c r="B219" t="n">
+        <v>875</v>
+      </c>
+      <c r="C219" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="D219" t="n">
+        <v>587.6979370117188</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>20</v>
+      </c>
+      <c r="B220" t="n">
+        <v>925</v>
+      </c>
+      <c r="C220" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="D220" t="n">
+        <v>716.258544921875</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>20</v>
+      </c>
+      <c r="B221" t="n">
+        <v>975</v>
+      </c>
+      <c r="C221" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1050.564697265625</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>22</v>
+      </c>
+      <c r="B222" t="n">
+        <v>25</v>
+      </c>
+      <c r="C222" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="D222" t="n">
+        <v>170.288818359375</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>22</v>
+      </c>
+      <c r="B223" t="n">
+        <v>75</v>
+      </c>
+      <c r="C223" t="n">
+        <v>41.17</v>
+      </c>
+      <c r="D223" t="n">
+        <v>225.6211700439453</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>22</v>
+      </c>
+      <c r="B224" t="n">
+        <v>125</v>
+      </c>
+      <c r="C224" t="n">
+        <v>47.26</v>
+      </c>
+      <c r="D224" t="n">
+        <v>292.9410705566406</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>22</v>
+      </c>
+      <c r="B225" t="n">
+        <v>175</v>
+      </c>
+      <c r="C225" t="n">
+        <v>46.23</v>
+      </c>
+      <c r="D225" t="n">
+        <v>279.8057861328125</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>22</v>
+      </c>
+      <c r="B226" t="n">
+        <v>225</v>
+      </c>
+      <c r="C226" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>306.8776550292969</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>22</v>
+      </c>
+      <c r="B227" t="n">
+        <v>275</v>
+      </c>
+      <c r="C227" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="D227" t="n">
+        <v>325.4446105957031</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>22</v>
+      </c>
+      <c r="B228" t="n">
+        <v>325</v>
+      </c>
+      <c r="C228" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D228" t="n">
+        <v>343.389892578125</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>22</v>
+      </c>
+      <c r="B229" t="n">
+        <v>375</v>
+      </c>
+      <c r="C229" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="D229" t="n">
+        <v>377.4033203125</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>22</v>
+      </c>
+      <c r="B230" t="n">
+        <v>425</v>
+      </c>
+      <c r="C230" t="n">
+        <v>49.02</v>
+      </c>
+      <c r="D230" t="n">
+        <v>403.5329284667969</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>22</v>
+      </c>
+      <c r="B231" t="n">
+        <v>475</v>
+      </c>
+      <c r="C231" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="D231" t="n">
+        <v>429.1980285644531</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>22</v>
+      </c>
+      <c r="B232" t="n">
+        <v>525</v>
+      </c>
+      <c r="C232" t="n">
+        <v>49.73</v>
+      </c>
+      <c r="D232" t="n">
+        <v>372.6964721679688</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>22</v>
+      </c>
+      <c r="B233" t="n">
+        <v>575</v>
+      </c>
+      <c r="C233" t="n">
+        <v>36.22</v>
+      </c>
+      <c r="D233" t="n">
+        <v>453.8440246582031</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>22</v>
+      </c>
+      <c r="B234" t="n">
+        <v>625</v>
+      </c>
+      <c r="C234" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="D234" t="n">
+        <v>348.67626953125</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>22</v>
+      </c>
+      <c r="B235" t="n">
+        <v>675</v>
+      </c>
+      <c r="C235" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="D235" t="n">
+        <v>799.6756591796875</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>22</v>
+      </c>
+      <c r="B236" t="n">
+        <v>725</v>
+      </c>
+      <c r="C236" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="D236" t="n">
+        <v>573.1731567382812</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>22</v>
+      </c>
+      <c r="B237" t="n">
+        <v>775</v>
+      </c>
+      <c r="C237" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D237" t="n">
+        <v>934.309326171875</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>22</v>
+      </c>
+      <c r="B238" t="n">
+        <v>825</v>
+      </c>
+      <c r="C238" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="D238" t="n">
+        <v>516.4998168945312</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>22</v>
+      </c>
+      <c r="B239" t="n">
+        <v>875</v>
+      </c>
+      <c r="C239" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="D239" t="n">
+        <v>453.2132263183594</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>22</v>
+      </c>
+      <c r="B240" t="n">
+        <v>925</v>
+      </c>
+      <c r="C240" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>714.2469482421875</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>22</v>
+      </c>
+      <c r="B241" t="n">
+        <v>975</v>
+      </c>
+      <c r="C241" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D241" t="n">
+        <v>971.2665405273438</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>24</v>
+      </c>
+      <c r="B242" t="n">
+        <v>25</v>
+      </c>
+      <c r="C242" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="D242" t="n">
+        <v>219.7812652587891</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>24</v>
+      </c>
+      <c r="B243" t="n">
+        <v>75</v>
+      </c>
+      <c r="C243" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>249.4998016357422</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>24</v>
+      </c>
+      <c r="B244" t="n">
+        <v>125</v>
+      </c>
+      <c r="C244" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="D244" t="n">
+        <v>222.5666656494141</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>24</v>
+      </c>
+      <c r="B245" t="n">
+        <v>175</v>
+      </c>
+      <c r="C245" t="n">
+        <v>46.87</v>
+      </c>
+      <c r="D245" t="n">
+        <v>277.6692199707031</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>24</v>
+      </c>
+      <c r="B246" t="n">
+        <v>225</v>
+      </c>
+      <c r="C246" t="n">
+        <v>48.99</v>
+      </c>
+      <c r="D246" t="n">
+        <v>266.6471557617188</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>24</v>
+      </c>
+      <c r="B247" t="n">
+        <v>275</v>
+      </c>
+      <c r="C247" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="D247" t="n">
+        <v>332.5078430175781</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>24</v>
+      </c>
+      <c r="B248" t="n">
+        <v>325</v>
+      </c>
+      <c r="C248" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="D248" t="n">
+        <v>320.0377502441406</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>24</v>
+      </c>
+      <c r="B249" t="n">
+        <v>375</v>
+      </c>
+      <c r="C249" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="D249" t="n">
+        <v>355.4178466796875</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>24</v>
+      </c>
+      <c r="B250" t="n">
+        <v>425</v>
+      </c>
+      <c r="C250" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D250" t="n">
+        <v>284.3580322265625</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>24</v>
+      </c>
+      <c r="B251" t="n">
+        <v>475</v>
+      </c>
+      <c r="C251" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="D251" t="n">
+        <v>405.2178344726562</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>24</v>
+      </c>
+      <c r="B252" t="n">
+        <v>525</v>
+      </c>
+      <c r="C252" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D252" t="n">
+        <v>348.0289306640625</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>24</v>
+      </c>
+      <c r="B253" t="n">
+        <v>575</v>
+      </c>
+      <c r="C253" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="D253" t="n">
+        <v>488.9908752441406</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>24</v>
+      </c>
+      <c r="B254" t="n">
+        <v>625</v>
+      </c>
+      <c r="C254" t="n">
+        <v>46.85</v>
+      </c>
+      <c r="D254" t="n">
+        <v>358.6621398925781</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>24</v>
+      </c>
+      <c r="B255" t="n">
+        <v>675</v>
+      </c>
+      <c r="C255" t="n">
+        <v>47.32</v>
+      </c>
+      <c r="D255" t="n">
+        <v>336.5266723632812</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>24</v>
+      </c>
+      <c r="B256" t="n">
+        <v>725</v>
+      </c>
+      <c r="C256" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="D256" t="n">
+        <v>520.134521484375</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>24</v>
+      </c>
+      <c r="B257" t="n">
+        <v>775</v>
+      </c>
+      <c r="C257" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="D257" t="n">
+        <v>529.1507568359375</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>24</v>
+      </c>
+      <c r="B258" t="n">
+        <v>825</v>
+      </c>
+      <c r="C258" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="D258" t="n">
+        <v>371.3116760253906</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>24</v>
+      </c>
+      <c r="B259" t="n">
+        <v>875</v>
+      </c>
+      <c r="C259" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="D259" t="n">
+        <v>515.992919921875</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>24</v>
+      </c>
+      <c r="B260" t="n">
+        <v>925</v>
+      </c>
+      <c r="C260" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="D260" t="n">
+        <v>657.3956909179688</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>24</v>
+      </c>
+      <c r="B261" t="n">
+        <v>975</v>
+      </c>
+      <c r="C261" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="D261" t="n">
+        <v>693.1130981445312</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>26</v>
+      </c>
+      <c r="B262" t="n">
+        <v>25</v>
+      </c>
+      <c r="C262" t="n">
+        <v>43.66</v>
+      </c>
+      <c r="D262" t="n">
+        <v>139.7348022460938</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>26</v>
+      </c>
+      <c r="B263" t="n">
+        <v>75</v>
+      </c>
+      <c r="C263" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>219.69970703125</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>26</v>
+      </c>
+      <c r="B264" t="n">
+        <v>125</v>
+      </c>
+      <c r="C264" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="D264" t="n">
+        <v>229.7160797119141</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>26</v>
+      </c>
+      <c r="B265" t="n">
+        <v>175</v>
+      </c>
+      <c r="C265" t="n">
+        <v>47.72</v>
+      </c>
+      <c r="D265" t="n">
+        <v>273.1560668945312</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>26</v>
+      </c>
+      <c r="B266" t="n">
+        <v>225</v>
+      </c>
+      <c r="C266" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="D266" t="n">
+        <v>280.910888671875</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>26</v>
+      </c>
+      <c r="B267" t="n">
+        <v>275</v>
+      </c>
+      <c r="C267" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="D267" t="n">
+        <v>270.2499084472656</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>26</v>
+      </c>
+      <c r="B268" t="n">
+        <v>325</v>
+      </c>
+      <c r="C268" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="D268" t="n">
+        <v>274.8153991699219</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>26</v>
+      </c>
+      <c r="B269" t="n">
+        <v>375</v>
+      </c>
+      <c r="C269" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="D269" t="n">
+        <v>269.4992065429688</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>26</v>
+      </c>
+      <c r="B270" t="n">
+        <v>425</v>
+      </c>
+      <c r="C270" t="n">
+        <v>49.78</v>
+      </c>
+      <c r="D270" t="n">
+        <v>296.6929321289062</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>26</v>
+      </c>
+      <c r="B271" t="n">
+        <v>475</v>
+      </c>
+      <c r="C271" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="D271" t="n">
+        <v>302.2647094726562</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>26</v>
+      </c>
+      <c r="B272" t="n">
+        <v>525</v>
+      </c>
+      <c r="C272" t="n">
+        <v>48.83</v>
+      </c>
+      <c r="D272" t="n">
+        <v>296.9954833984375</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>26</v>
+      </c>
+      <c r="B273" t="n">
+        <v>575</v>
+      </c>
+      <c r="C273" t="n">
+        <v>48.82</v>
+      </c>
+      <c r="D273" t="n">
+        <v>328.4935302734375</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>26</v>
+      </c>
+      <c r="B274" t="n">
+        <v>625</v>
+      </c>
+      <c r="C274" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="D274" t="n">
+        <v>417.2224426269531</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>26</v>
+      </c>
+      <c r="B275" t="n">
+        <v>675</v>
+      </c>
+      <c r="C275" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="D275" t="n">
+        <v>382.9346923828125</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>26</v>
+      </c>
+      <c r="B276" t="n">
+        <v>725</v>
+      </c>
+      <c r="C276" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="D276" t="n">
+        <v>380.4929504394531</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>26</v>
+      </c>
+      <c r="B277" t="n">
+        <v>775</v>
+      </c>
+      <c r="C277" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="D277" t="n">
+        <v>312.2702941894531</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>26</v>
+      </c>
+      <c r="B278" t="n">
+        <v>825</v>
+      </c>
+      <c r="C278" t="n">
+        <v>46.64</v>
+      </c>
+      <c r="D278" t="n">
+        <v>343.8935241699219</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>26</v>
+      </c>
+      <c r="B279" t="n">
+        <v>875</v>
+      </c>
+      <c r="C279" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="D279" t="n">
+        <v>335.1701049804688</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>26</v>
+      </c>
+      <c r="B280" t="n">
+        <v>925</v>
+      </c>
+      <c r="C280" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="D280" t="n">
+        <v>403.9425354003906</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>26</v>
+      </c>
+      <c r="B281" t="n">
+        <v>975</v>
+      </c>
+      <c r="C281" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="D281" t="n">
+        <v>507.2716674804688</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>28</v>
+      </c>
+      <c r="B282" t="n">
+        <v>25</v>
+      </c>
+      <c r="C282" t="n">
+        <v>43.16</v>
+      </c>
+      <c r="D282" t="n">
+        <v>132.4827423095703</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>28</v>
+      </c>
+      <c r="B283" t="n">
+        <v>75</v>
+      </c>
+      <c r="C283" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="D283" t="n">
+        <v>185.650390625</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>28</v>
+      </c>
+      <c r="B284" t="n">
+        <v>125</v>
+      </c>
+      <c r="C284" t="n">
+        <v>45.89</v>
+      </c>
+      <c r="D284" t="n">
+        <v>208.1774444580078</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>28</v>
+      </c>
+      <c r="B285" t="n">
+        <v>175</v>
+      </c>
+      <c r="C285" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>228.6524505615234</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>28</v>
+      </c>
+      <c r="B286" t="n">
+        <v>225</v>
+      </c>
+      <c r="C286" t="n">
+        <v>48.43</v>
+      </c>
+      <c r="D286" t="n">
+        <v>254.5057830810547</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>28</v>
+      </c>
+      <c r="B287" t="n">
+        <v>275</v>
+      </c>
+      <c r="C287" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="D287" t="n">
+        <v>269.9761657714844</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>28</v>
+      </c>
+      <c r="B288" t="n">
+        <v>325</v>
+      </c>
+      <c r="C288" t="n">
+        <v>46.87</v>
+      </c>
+      <c r="D288" t="n">
+        <v>222.2964630126953</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>28</v>
+      </c>
+      <c r="B289" t="n">
+        <v>375</v>
+      </c>
+      <c r="C289" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="D289" t="n">
+        <v>237.6580352783203</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>28</v>
+      </c>
+      <c r="B290" t="n">
+        <v>425</v>
+      </c>
+      <c r="C290" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="D290" t="n">
+        <v>272.3452758789062</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>28</v>
+      </c>
+      <c r="B291" t="n">
+        <v>475</v>
+      </c>
+      <c r="C291" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="D291" t="n">
+        <v>269.7718505859375</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>28</v>
+      </c>
+      <c r="B292" t="n">
+        <v>525</v>
+      </c>
+      <c r="C292" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="D292" t="n">
+        <v>265.8578491210938</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>28</v>
+      </c>
+      <c r="B293" t="n">
+        <v>575</v>
+      </c>
+      <c r="C293" t="n">
+        <v>48.96</v>
+      </c>
+      <c r="D293" t="n">
+        <v>280.3513793945312</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>28</v>
+      </c>
+      <c r="B294" t="n">
+        <v>625</v>
+      </c>
+      <c r="C294" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="D294" t="n">
+        <v>570.4481201171875</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>28</v>
+      </c>
+      <c r="B295" t="n">
+        <v>675</v>
+      </c>
+      <c r="C295" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D295" t="n">
+        <v>274.6465759277344</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>28</v>
+      </c>
+      <c r="B296" t="n">
+        <v>725</v>
+      </c>
+      <c r="C296" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="D296" t="n">
+        <v>341.0151062011719</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>28</v>
+      </c>
+      <c r="B297" t="n">
+        <v>775</v>
+      </c>
+      <c r="C297" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="D297" t="n">
+        <v>477.163818359375</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>28</v>
+      </c>
+      <c r="B298" t="n">
+        <v>825</v>
+      </c>
+      <c r="C298" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="D298" t="n">
+        <v>398.0845031738281</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>28</v>
+      </c>
+      <c r="B299" t="n">
+        <v>875</v>
+      </c>
+      <c r="C299" t="n">
+        <v>48.47</v>
+      </c>
+      <c r="D299" t="n">
+        <v>320.9922485351562</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>28</v>
+      </c>
+      <c r="B300" t="n">
+        <v>925</v>
+      </c>
+      <c r="C300" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="D300" t="n">
+        <v>749.3314819335938</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>28</v>
+      </c>
+      <c r="B301" t="n">
+        <v>975</v>
+      </c>
+      <c r="C301" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="D301" t="n">
+        <v>471.3302001953125</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>30</v>
+      </c>
+      <c r="B302" t="n">
+        <v>25</v>
+      </c>
+      <c r="C302" t="n">
+        <v>42.55</v>
+      </c>
+      <c r="D302" t="n">
+        <v>124.3200988769531</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>30</v>
+      </c>
+      <c r="B303" t="n">
+        <v>75</v>
+      </c>
+      <c r="C303" t="n">
+        <v>46.44</v>
+      </c>
+      <c r="D303" t="n">
+        <v>185.2881317138672</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>30</v>
+      </c>
+      <c r="B304" t="n">
+        <v>125</v>
+      </c>
+      <c r="C304" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="D304" t="n">
+        <v>162.3523559570312</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>30</v>
+      </c>
+      <c r="B305" t="n">
+        <v>175</v>
+      </c>
+      <c r="C305" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="D305" t="n">
+        <v>170.3921508789062</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>30</v>
+      </c>
+      <c r="B306" t="n">
+        <v>225</v>
+      </c>
+      <c r="C306" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D306" t="n">
+        <v>214.5551910400391</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>30</v>
+      </c>
+      <c r="B307" t="n">
+        <v>275</v>
+      </c>
+      <c r="C307" t="n">
+        <v>48.51</v>
+      </c>
+      <c r="D307" t="n">
+        <v>232.4332275390625</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>30</v>
+      </c>
+      <c r="B308" t="n">
+        <v>325</v>
+      </c>
+      <c r="C308" t="n">
+        <v>47.99</v>
+      </c>
+      <c r="D308" t="n">
+        <v>247.2574462890625</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>30</v>
+      </c>
+      <c r="B309" t="n">
+        <v>375</v>
+      </c>
+      <c r="C309" t="n">
+        <v>48.46</v>
+      </c>
+      <c r="D309" t="n">
+        <v>248.9435272216797</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>30</v>
+      </c>
+      <c r="B310" t="n">
+        <v>425</v>
+      </c>
+      <c r="C310" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="D310" t="n">
+        <v>255.1908721923828</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>30</v>
+      </c>
+      <c r="B311" t="n">
+        <v>475</v>
+      </c>
+      <c r="C311" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="D311" t="n">
+        <v>268.7838134765625</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>30</v>
+      </c>
+      <c r="B312" t="n">
+        <v>525</v>
+      </c>
+      <c r="C312" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D312" t="n">
+        <v>264.5650939941406</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>30</v>
+      </c>
+      <c r="B313" t="n">
+        <v>575</v>
+      </c>
+      <c r="C313" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D313" t="n">
+        <v>258.3572387695312</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>30</v>
+      </c>
+      <c r="B314" t="n">
+        <v>625</v>
+      </c>
+      <c r="C314" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D314" t="n">
+        <v>268.9673461914062</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>30</v>
+      </c>
+      <c r="B315" t="n">
+        <v>675</v>
+      </c>
+      <c r="C315" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="D315" t="n">
+        <v>261.0249938964844</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>30</v>
+      </c>
+      <c r="B316" t="n">
+        <v>725</v>
+      </c>
+      <c r="C316" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="D316" t="n">
+        <v>318.74853515625</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>30</v>
+      </c>
+      <c r="B317" t="n">
+        <v>775</v>
+      </c>
+      <c r="C317" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="D317" t="n">
+        <v>340.6475524902344</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>30</v>
+      </c>
+      <c r="B318" t="n">
+        <v>825</v>
+      </c>
+      <c r="C318" t="n">
+        <v>49.17</v>
+      </c>
+      <c r="D318" t="n">
+        <v>278.5425415039062</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>30</v>
+      </c>
+      <c r="B319" t="n">
+        <v>875</v>
+      </c>
+      <c r="C319" t="n">
+        <v>37.82</v>
+      </c>
+      <c r="D319" t="n">
+        <v>334.3995971679688</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>30</v>
+      </c>
+      <c r="B320" t="n">
+        <v>925</v>
+      </c>
+      <c r="C320" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D320" t="n">
+        <v>288.2561645507812</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>30</v>
+      </c>
+      <c r="B321" t="n">
+        <v>975</v>
+      </c>
+      <c r="C321" t="n">
+        <v>36.48</v>
+      </c>
+      <c r="D321" t="n">
+        <v>365.2052917480469</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>35</v>
+      </c>
+      <c r="B322" t="n">
+        <v>25</v>
+      </c>
+      <c r="C322" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="D322" t="n">
+        <v>101.8721542358398</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>35</v>
+      </c>
+      <c r="B323" t="n">
+        <v>75</v>
+      </c>
+      <c r="C323" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="D323" t="n">
+        <v>115.8253936767578</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>35</v>
+      </c>
+      <c r="B324" t="n">
+        <v>125</v>
+      </c>
+      <c r="C324" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="D324" t="n">
+        <v>180.9730377197266</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>35</v>
+      </c>
+      <c r="B325" t="n">
+        <v>175</v>
+      </c>
+      <c r="C325" t="n">
+        <v>47.16</v>
+      </c>
+      <c r="D325" t="n">
+        <v>174.5367584228516</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>35</v>
+      </c>
+      <c r="B326" t="n">
+        <v>225</v>
+      </c>
+      <c r="C326" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="D326" t="n">
+        <v>181.7632293701172</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>35</v>
+      </c>
+      <c r="B327" t="n">
+        <v>275</v>
+      </c>
+      <c r="C327" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="D327" t="n">
+        <v>167.1314697265625</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>35</v>
+      </c>
+      <c r="B328" t="n">
+        <v>325</v>
+      </c>
+      <c r="C328" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="D328" t="n">
+        <v>211.2046966552734</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>35</v>
+      </c>
+      <c r="B329" t="n">
+        <v>375</v>
+      </c>
+      <c r="C329" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="D329" t="n">
+        <v>201.0046081542969</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>35</v>
+      </c>
+      <c r="B330" t="n">
+        <v>425</v>
+      </c>
+      <c r="C330" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="D330" t="n">
+        <v>203.9083251953125</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>35</v>
+      </c>
+      <c r="B331" t="n">
+        <v>475</v>
+      </c>
+      <c r="C331" t="n">
+        <v>49.42</v>
+      </c>
+      <c r="D331" t="n">
+        <v>206.9826507568359</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>35</v>
+      </c>
+      <c r="B332" t="n">
+        <v>525</v>
+      </c>
+      <c r="C332" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="D332" t="n">
+        <v>195.1163635253906</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>35</v>
+      </c>
+      <c r="B333" t="n">
+        <v>575</v>
+      </c>
+      <c r="C333" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="D333" t="n">
+        <v>198.0214691162109</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>35</v>
+      </c>
+      <c r="B334" t="n">
+        <v>625</v>
+      </c>
+      <c r="C334" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D334" t="n">
+        <v>216.4772491455078</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>35</v>
+      </c>
+      <c r="B335" t="n">
+        <v>675</v>
+      </c>
+      <c r="C335" t="n">
+        <v>45.86</v>
+      </c>
+      <c r="D335" t="n">
+        <v>214.8267669677734</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>35</v>
+      </c>
+      <c r="B336" t="n">
+        <v>725</v>
+      </c>
+      <c r="C336" t="n">
+        <v>48.21</v>
+      </c>
+      <c r="D336" t="n">
+        <v>212.5701904296875</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>35</v>
+      </c>
+      <c r="B337" t="n">
+        <v>775</v>
+      </c>
+      <c r="C337" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="D337" t="n">
+        <v>349.10205078125</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>35</v>
+      </c>
+      <c r="B338" t="n">
+        <v>825</v>
+      </c>
+      <c r="C338" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="D338" t="n">
+        <v>260.2490234375</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>35</v>
+      </c>
+      <c r="B339" t="n">
+        <v>875</v>
+      </c>
+      <c r="C339" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="D339" t="n">
+        <v>393.6342163085938</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>35</v>
+      </c>
+      <c r="B340" t="n">
+        <v>925</v>
+      </c>
+      <c r="C340" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="D340" t="n">
+        <v>201.9402923583984</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>35</v>
+      </c>
+      <c r="B341" t="n">
+        <v>975</v>
+      </c>
+      <c r="C341" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="D341" t="n">
+        <v>221.2479400634766</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>40</v>
+      </c>
+      <c r="B342" t="n">
+        <v>25</v>
+      </c>
+      <c r="C342" t="n">
+        <v>33.72</v>
+      </c>
+      <c r="D342" t="n">
+        <v>48.29519653320312</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>40</v>
+      </c>
+      <c r="B343" t="n">
+        <v>75</v>
+      </c>
+      <c r="C343" t="n">
+        <v>44.32</v>
+      </c>
+      <c r="D343" t="n">
+        <v>105.3722534179688</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>40</v>
+      </c>
+      <c r="B344" t="n">
+        <v>125</v>
+      </c>
+      <c r="C344" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D344" t="n">
+        <v>150.0346069335938</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>40</v>
+      </c>
+      <c r="B345" t="n">
+        <v>175</v>
+      </c>
+      <c r="C345" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="D345" t="n">
+        <v>153.1435241699219</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>40</v>
+      </c>
+      <c r="B346" t="n">
+        <v>225</v>
+      </c>
+      <c r="C346" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="D346" t="n">
+        <v>159.1415710449219</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>40</v>
+      </c>
+      <c r="B347" t="n">
+        <v>275</v>
+      </c>
+      <c r="C347" t="n">
+        <v>47.23</v>
+      </c>
+      <c r="D347" t="n">
+        <v>156.6323547363281</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>40</v>
+      </c>
+      <c r="B348" t="n">
+        <v>325</v>
+      </c>
+      <c r="C348" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="D348" t="n">
+        <v>134.6927490234375</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>40</v>
+      </c>
+      <c r="B349" t="n">
+        <v>375</v>
+      </c>
+      <c r="C349" t="n">
+        <v>48.24</v>
+      </c>
+      <c r="D349" t="n">
+        <v>171.6119537353516</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>40</v>
+      </c>
+      <c r="B350" t="n">
+        <v>425</v>
+      </c>
+      <c r="C350" t="n">
+        <v>46.21</v>
+      </c>
+      <c r="D350" t="n">
+        <v>159.0238189697266</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>40</v>
+      </c>
+      <c r="B351" t="n">
+        <v>475</v>
+      </c>
+      <c r="C351" t="n">
+        <v>47.22</v>
+      </c>
+      <c r="D351" t="n">
+        <v>155.8798980712891</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>40</v>
+      </c>
+      <c r="B352" t="n">
+        <v>525</v>
+      </c>
+      <c r="C352" t="n">
+        <v>48.32</v>
+      </c>
+      <c r="D352" t="n">
+        <v>176.7613677978516</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>40</v>
+      </c>
+      <c r="B353" t="n">
+        <v>575</v>
+      </c>
+      <c r="C353" t="n">
+        <v>46.91</v>
+      </c>
+      <c r="D353" t="n">
+        <v>153.5890197753906</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>40</v>
+      </c>
+      <c r="B354" t="n">
+        <v>625</v>
+      </c>
+      <c r="C354" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="D354" t="n">
+        <v>146.0259857177734</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>40</v>
+      </c>
+      <c r="B355" t="n">
+        <v>675</v>
+      </c>
+      <c r="C355" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="D355" t="n">
+        <v>171.9369506835938</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>40</v>
+      </c>
+      <c r="B356" t="n">
+        <v>725</v>
+      </c>
+      <c r="C356" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="D356" t="n">
+        <v>180.6720581054688</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>40</v>
+      </c>
+      <c r="B357" t="n">
+        <v>775</v>
+      </c>
+      <c r="C357" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="D357" t="n">
+        <v>169.7282257080078</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>40</v>
+      </c>
+      <c r="B358" t="n">
+        <v>825</v>
+      </c>
+      <c r="C358" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="D358" t="n">
+        <v>269.9169616699219</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>40</v>
+      </c>
+      <c r="B359" t="n">
+        <v>875</v>
+      </c>
+      <c r="C359" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D359" t="n">
+        <v>352.5698852539062</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>40</v>
+      </c>
+      <c r="B360" t="n">
+        <v>925</v>
+      </c>
+      <c r="C360" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="D360" t="n">
+        <v>273.1291198730469</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>40</v>
+      </c>
+      <c r="B361" t="n">
+        <v>975</v>
+      </c>
+      <c r="C361" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="D361" t="n">
+        <v>265.5523376464844</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>45</v>
+      </c>
+      <c r="B362" t="n">
+        <v>25</v>
+      </c>
+      <c r="C362" t="n">
+        <v>35.35</v>
+      </c>
+      <c r="D362" t="n">
+        <v>44.82480239868164</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>45</v>
+      </c>
+      <c r="B363" t="n">
+        <v>75</v>
+      </c>
+      <c r="C363" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D363" t="n">
+        <v>110.9203872680664</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>45</v>
+      </c>
+      <c r="B364" t="n">
+        <v>125</v>
+      </c>
+      <c r="C364" t="n">
+        <v>45.82</v>
+      </c>
+      <c r="D364" t="n">
+        <v>112.0171585083008</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>45</v>
+      </c>
+      <c r="B365" t="n">
+        <v>175</v>
+      </c>
+      <c r="C365" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="D365" t="n">
+        <v>46.22588348388672</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>45</v>
+      </c>
+      <c r="B366" t="n">
+        <v>225</v>
+      </c>
+      <c r="C366" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="D366" t="n">
+        <v>123.2739181518555</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>45</v>
+      </c>
+      <c r="B367" t="n">
+        <v>275</v>
+      </c>
+      <c r="C367" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="D367" t="n">
+        <v>85.39646911621094</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>45</v>
+      </c>
+      <c r="B368" t="n">
+        <v>325</v>
+      </c>
+      <c r="C368" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>113.0316619873047</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>45</v>
+      </c>
+      <c r="B369" t="n">
+        <v>375</v>
+      </c>
+      <c r="C369" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="D369" t="n">
+        <v>133.5547027587891</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>45</v>
+      </c>
+      <c r="B370" t="n">
+        <v>425</v>
+      </c>
+      <c r="C370" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="D370" t="n">
+        <v>140.0610809326172</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>45</v>
+      </c>
+      <c r="B371" t="n">
+        <v>475</v>
+      </c>
+      <c r="C371" t="n">
+        <v>47.14</v>
+      </c>
+      <c r="D371" t="n">
+        <v>136.8069610595703</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>45</v>
+      </c>
+      <c r="B372" t="n">
+        <v>525</v>
+      </c>
+      <c r="C372" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="D372" t="n">
+        <v>140.1894073486328</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>45</v>
+      </c>
+      <c r="B373" t="n">
+        <v>575</v>
+      </c>
+      <c r="C373" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="D373" t="n">
+        <v>145.4820556640625</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>45</v>
+      </c>
+      <c r="B374" t="n">
+        <v>625</v>
+      </c>
+      <c r="C374" t="n">
+        <v>47.87</v>
+      </c>
+      <c r="D374" t="n">
+        <v>139.7401885986328</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>45</v>
+      </c>
+      <c r="B375" t="n">
+        <v>675</v>
+      </c>
+      <c r="C375" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D375" t="n">
+        <v>120.0030364990234</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>45</v>
+      </c>
+      <c r="B376" t="n">
+        <v>725</v>
+      </c>
+      <c r="C376" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="D376" t="n">
+        <v>145.2337188720703</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>45</v>
+      </c>
+      <c r="B377" t="n">
+        <v>775</v>
+      </c>
+      <c r="C377" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="D377" t="n">
+        <v>172.6002960205078</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>45</v>
+      </c>
+      <c r="B378" t="n">
+        <v>825</v>
+      </c>
+      <c r="C378" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="D378" t="n">
+        <v>179.0887298583984</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>45</v>
+      </c>
+      <c r="B379" t="n">
+        <v>875</v>
+      </c>
+      <c r="C379" t="n">
+        <v>47.38</v>
+      </c>
+      <c r="D379" t="n">
+        <v>152.3201904296875</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>45</v>
+      </c>
+      <c r="B380" t="n">
+        <v>925</v>
+      </c>
+      <c r="C380" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D380" t="n">
+        <v>275.5715637207031</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>45</v>
+      </c>
+      <c r="B381" t="n">
+        <v>975</v>
+      </c>
+      <c r="C381" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="D381" t="n">
+        <v>203.8701019287109</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>50</v>
+      </c>
+      <c r="B382" t="n">
+        <v>25</v>
+      </c>
+      <c r="C382" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="D382" t="n">
+        <v>48.44519424438477</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>50</v>
+      </c>
+      <c r="B383" t="n">
+        <v>75</v>
+      </c>
+      <c r="C383" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="D383" t="n">
+        <v>79.99147033691406</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>50</v>
+      </c>
+      <c r="B384" t="n">
+        <v>125</v>
+      </c>
+      <c r="C384" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="D384" t="n">
+        <v>71.86441040039062</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>50</v>
+      </c>
+      <c r="B385" t="n">
+        <v>175</v>
+      </c>
+      <c r="C385" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="D385" t="n">
+        <v>104.267448425293</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>50</v>
+      </c>
+      <c r="B386" t="n">
+        <v>225</v>
+      </c>
+      <c r="C386" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="D386" t="n">
+        <v>65.87019348144531</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>50</v>
+      </c>
+      <c r="B387" t="n">
+        <v>275</v>
+      </c>
+      <c r="C387" t="n">
+        <v>46.34</v>
+      </c>
+      <c r="D387" t="n">
+        <v>115.567741394043</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>50</v>
+      </c>
+      <c r="B388" t="n">
+        <v>325</v>
+      </c>
+      <c r="C388" t="n">
+        <v>45.03</v>
+      </c>
+      <c r="D388" t="n">
+        <v>99.98637390136719</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>50</v>
+      </c>
+      <c r="B389" t="n">
+        <v>375</v>
+      </c>
+      <c r="C389" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="D389" t="n">
+        <v>103.0281372070312</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>50</v>
+      </c>
+      <c r="B390" t="n">
+        <v>425</v>
+      </c>
+      <c r="C390" t="n">
+        <v>46.58</v>
+      </c>
+      <c r="D390" t="n">
+        <v>118.9482345581055</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>50</v>
+      </c>
+      <c r="B391" t="n">
+        <v>475</v>
+      </c>
+      <c r="C391" t="n">
+        <v>46.19</v>
+      </c>
+      <c r="D391" t="n">
+        <v>121.4399032592773</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>50</v>
+      </c>
+      <c r="B392" t="n">
+        <v>525</v>
+      </c>
+      <c r="C392" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D392" t="n">
+        <v>90.687744140625</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>50</v>
+      </c>
+      <c r="B393" t="n">
+        <v>575</v>
+      </c>
+      <c r="C393" t="n">
+        <v>46.41</v>
+      </c>
+      <c r="D393" t="n">
+        <v>119.30126953125</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>50</v>
+      </c>
+      <c r="B394" t="n">
+        <v>625</v>
+      </c>
+      <c r="C394" t="n">
+        <v>46.08</v>
+      </c>
+      <c r="D394" t="n">
+        <v>114.6826477050781</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>50</v>
+      </c>
+      <c r="B395" t="n">
+        <v>675</v>
+      </c>
+      <c r="C395" t="n">
+        <v>46.43</v>
+      </c>
+      <c r="D395" t="n">
+        <v>116.2088241577148</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>50</v>
+      </c>
+      <c r="B396" t="n">
+        <v>725</v>
+      </c>
+      <c r="C396" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="D396" t="n">
+        <v>122.1213684082031</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>50</v>
+      </c>
+      <c r="B397" t="n">
+        <v>775</v>
+      </c>
+      <c r="C397" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="D397" t="n">
+        <v>225.3536224365234</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>50</v>
+      </c>
+      <c r="B398" t="n">
+        <v>825</v>
+      </c>
+      <c r="C398" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="D398" t="n">
+        <v>118.3950958251953</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>50</v>
+      </c>
+      <c r="B399" t="n">
+        <v>875</v>
+      </c>
+      <c r="C399" t="n">
+        <v>45.79</v>
+      </c>
+      <c r="D399" t="n">
+        <v>134.6229400634766</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>50</v>
+      </c>
+      <c r="B400" t="n">
+        <v>925</v>
+      </c>
+      <c r="C400" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="D400" t="n">
+        <v>175.2184295654297</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>50</v>
+      </c>
+      <c r="B401" t="n">
+        <v>975</v>
+      </c>
+      <c r="C401" t="n">
+        <v>44.56</v>
+      </c>
+      <c r="D401" t="n">
+        <v>118.7440185546875</v>
       </c>
     </row>
   </sheetData>
